--- a/Immagini, idee/ParticipantCharacteristics.xlsx
+++ b/Immagini, idee/ParticipantCharacteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\rob_upperlimb_strokes\Data Analysis\00_Immagini, idee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\rob_upperlimb_strokes\Immagini, idee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF0838F-7E8D-4991-A16F-7B2DFCC0DA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A7BBF-85CF-4785-83FF-C2BA40682BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14220" yWindow="2130" windowWidth="15300" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartChar" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -189,13 +189,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -292,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,9 +323,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -656,25 +646,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="18">
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17">
         <v>55</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>21</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>54</v>
       </c>
       <c r="H1" s="5">
@@ -767,25 +757,25 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>69</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>10</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>41</v>
       </c>
       <c r="H5" s="5">
@@ -799,7 +789,7 @@
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>40</v>
       </c>
       <c r="D6" s="14">
@@ -823,55 +813,55 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17">
         <v>71</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>55</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>40</v>
       </c>
       <c r="H7" s="5">
         <v>12</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="18"/>
       <c r="M7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>58</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>53</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>49</v>
       </c>
       <c r="H8">
@@ -931,25 +921,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17">
         <v>59</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>20</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>53</v>
       </c>
       <c r="H11" s="5">
@@ -957,25 +947,25 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
         <v>55</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>18</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>59</v>
       </c>
       <c r="H12">
@@ -983,25 +973,25 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17">
         <v>42</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>6</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>37</v>
       </c>
       <c r="H13" s="5">
@@ -1061,25 +1051,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
         <v>78</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>54</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>48</v>
       </c>
       <c r="H16">
@@ -1113,28 +1103,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="22">
         <v>62</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>182</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="E18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="22">
         <v>34</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>43</v>
       </c>
     </row>
